--- a/template/productp4.xlsx
+++ b/template/productp4.xlsx
@@ -1,8 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{1CE6289D-FE45-4515-9716-E91D31631010}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,15 +82,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -100,6 +92,13 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -117,15 +116,6 @@
   <borders count="6">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -181,60 +171,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1044,7 +1043,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1069,720 +1068,720 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+    </row>
+    <row r="2" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+    </row>
+    <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O3" s="7"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="4" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4" t="s">
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="M4" s="12"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+    </row>
+    <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="15">
         <v>32</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15">
         <v>34</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15">
         <v>36</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14">
         <v>38</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4">
+      <c r="I5" s="14"/>
+      <c r="J5" s="14">
         <v>40</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14">
         <v>42</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4">
+      <c r="M5" s="14"/>
+      <c r="N5" s="14">
         <v>44</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4">
+      <c r="O5" s="14"/>
+      <c r="P5" s="14">
         <v>46</v>
       </c>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4" t="s">
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/template/productp4.xlsx
+++ b/template/productp4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{1CE6289D-FE45-4515-9716-E91D31631010}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B2B7E427-4CA7-7D4C-83AD-836C2594B3CE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,22 +205,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -229,11 +232,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1043,180 +1043,164 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="6.625" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
     <col min="3" max="3" width="5.5" customWidth="1"/>
-    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
     <col min="5" max="5" width="5.5" customWidth="1"/>
-    <col min="6" max="7" width="6.625" customWidth="1"/>
-    <col min="8" max="8" width="5.875" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" customWidth="1"/>
     <col min="9" max="9" width="5.5" customWidth="1"/>
-    <col min="10" max="10" width="6.625" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" customWidth="1"/>
     <col min="11" max="11" width="5.5" customWidth="1"/>
-    <col min="12" max="12" width="6.625" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" customWidth="1"/>
     <col min="13" max="13" width="5.5" customWidth="1"/>
-    <col min="14" max="14" width="6.625" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" customWidth="1"/>
     <col min="15" max="15" width="5.5" customWidth="1"/>
-    <col min="16" max="16" width="6.625" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" customWidth="1"/>
     <col min="17" max="17" width="5.5" customWidth="1"/>
-    <col min="18" max="19" width="6.625" customWidth="1"/>
+    <col min="18" max="19" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:19" ht="21">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-    </row>
-    <row r="2" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+    </row>
+    <row r="2" spans="1:19" ht="17">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+    </row>
+    <row r="3" spans="1:19" ht="17">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-    </row>
-    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="O3" s="6"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+    </row>
+    <row r="4" spans="1:19" ht="17">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8" t="s">
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-    </row>
-    <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="M4" s="13"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+    </row>
+    <row r="5" spans="1:19" ht="17">
+      <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="15">
-        <v>32</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15">
-        <v>34</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15">
-        <v>36</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14">
-        <v>38</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14">
-        <v>40</v>
-      </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14">
-        <v>42</v>
-      </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14">
-        <v>44</v>
-      </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14">
-        <v>46</v>
-      </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="S5" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1237,7 +1221,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1258,7 +1242,7 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1279,7 +1263,7 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1300,7 +1284,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1321,7 +1305,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1342,7 +1326,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1363,7 +1347,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1384,7 +1368,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1405,7 +1389,7 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="16">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1426,7 +1410,7 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1447,7 +1431,7 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1468,7 +1452,7 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1489,7 +1473,7 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1510,7 +1494,7 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1531,7 +1515,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1552,7 +1536,7 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1573,7 +1557,7 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1594,7 +1578,7 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1615,7 +1599,7 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1636,7 +1620,7 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1657,7 +1641,7 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1678,7 +1662,7 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
@@ -1699,7 +1683,7 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
@@ -1720,7 +1704,7 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
@@ -1741,7 +1725,7 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1762,7 +1746,7 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19">
       <c r="A32" s="4"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>

--- a/template/productp4.xlsx
+++ b/template/productp4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B2B7E427-4CA7-7D4C-83AD-836C2594B3CE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ACEDAE1C-7E5E-8D41-A873-B7F0D3E261AA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="9100" windowWidth="22220" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -184,11 +184,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -233,6 +244,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1043,7 +1057,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="I4" sqref="I4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1096,26 +1110,26 @@
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
       <c r="G2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
       <c r="N2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
     </row>
     <row r="3" spans="1:19" ht="17">
       <c r="A3" s="6" t="s">
@@ -1123,18 +1137,18 @@
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
       <c r="N3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1160,14 +1174,14 @@
         <v>9</v>
       </c>
       <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="7"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="14"/>
       <c r="L4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="13"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="7"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="14"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
@@ -1768,15 +1782,17 @@
       <c r="S32" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A1:S1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="M4:O4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
